--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://revwtrcom-my.sharepoint.com/personal/connor_rudmann_craftwaterinc_com/Documents/Documents/CIMP-L/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{A4FFAA7B-F2A6-4E3C-9D83-04DB42F7EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{902F2681-234D-47FB-8E49-416CA62C804D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{A4FFAA7B-F2A6-4E3C-9D83-04DB42F7EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF824F5-9931-45E8-B1D8-7796E3F0BBD4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{BBAA5B86-F48C-45D3-8BBF-F8F181EC99B8}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Permittee</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
     <t>Public Information and Participation Program </t>
   </si>
   <si>
@@ -161,6 +158,9 @@
     <t xml:space="preserve">Other Enhanced Programs 
 (including Enhanced Street Sweeping, Full Capture Devices, 
 and Catch Basin Cleanouts) </t>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,9 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426D08F2-1602-4396-B4A2-57B7287C7685}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -717,42 +715,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://revwtrcom-my.sharepoint.com/personal/connor_rudmann_craftwaterinc_com/Documents/Documents/CIMP-L/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{A4FFAA7B-F2A6-4E3C-9D83-04DB42F7EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF824F5-9931-45E8-B1D8-7796E3F0BBD4}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{A4FFAA7B-F2A6-4E3C-9D83-04DB42F7EE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E844C4FF-0502-4D49-933E-B521D0B5A934}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{BBAA5B86-F48C-45D3-8BBF-F8F181EC99B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BBAA5B86-F48C-45D3-8BBF-F8F181EC99B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Permittees" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6F211C-A8FB-4BCD-B233-96FA5E0D6CDF}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426D08F2-1602-4396-B4A2-57B7287C7685}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
